--- a/biology/Botanique/Liste_des_arbres_remarquables_des_Côtes-d'Armor/Liste_des_arbres_remarquables_des_Côtes-d'Armor.xlsx
+++ b/biology/Botanique/Liste_des_arbres_remarquables_des_Côtes-d'Armor/Liste_des_arbres_remarquables_des_Côtes-d'Armor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_remarquables_des_C%C3%B4tes-d%27Armor</t>
+          <t>Liste_des_arbres_remarquables_des_Côtes-d'Armor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Conseil général des Côtes-d'Armor a réalisé en 2011 un ouvrage sur les arbres remarquables[1].
-Parmi la centaine d’arbres présentés, certains ont plus de 500 ans[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil général des Côtes-d'Armor a réalisé en 2011 un ouvrage sur les arbres remarquables.
+Parmi la centaine d’arbres présentés, certains ont plus de 500 ans.
 			Chêne à Bulat-Pestivien.
 			If de Pommerit-le-Vicomte.
 			Glycine à Guingamp.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_remarquables_des_C%C3%B4tes-d%27Armor</t>
+          <t>Liste_des_arbres_remarquables_des_Côtes-d'Armor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Liste des arbres remarquables des Côtes-d'Armor</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les entrées signalées en gras sont les arbres distinguées par l'association Arbres remarquables : bilan, recherche, études et sauvegarde (A.R.B.R.E.S.)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les entrées signalées en gras sont les arbres distinguées par l'association Arbres remarquables : bilan, recherche, études et sauvegarde (A.R.B.R.E.S.).
 </t>
         </is>
       </c>
